--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Jean_Louis_Dangeard/Pierre_Jean_Louis_Dangeard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Jean_Louis_Dangeard/Pierre_Jean_Louis_Dangeard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Jean Louis Dangeard est un botaniste français, né le 18 février 1895 à Poitiers et mort le 23 août 1970 à Pléneuf (dans les Côtes-d'Armor).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du mycologue Pierre Clément Augustin Dangeard (1862-1947) et le frère du géologue Louis Dangeard (1898-1987). Après sa licence de sciences naturelles en 1914, il prend part à la Première Guerre mondiale où il est blessé et reçoit la Légion d'honneur. Il obtient l'agrégation de sciences naturelles en 1921 et obtient son doctorat en 1923 avec une thèse intitulée Recherches de biologie cellulaire (évolution du système vacuolaire chez les végétaux).
 Dangeard devient spécialiste des algues marines et participe aux expéditions dirigées par Jean-Baptiste Charcot (1867-1936) à bord du Pourquoi pas ?.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Description des péridiniens testacés recueillis par la Mission Charcot pendant le mois d'août 1924 (Blondel La Rougery, Paris, 1926).
 Traité d'algologie : introduction à la biologie et à la systématique des algues (Lechevalier, Paris, 1933).</t>
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Dhombres (dir.) (1995). Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle. Les éditions de l’Actualité Poitou-Charentes (Poitiers) : 262 p.  (ISBN 2-911320-00-X)</t>
         </is>
